--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail5 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>3.826658743918487e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.450578985548727</v>
+        <v>1.528434853267056e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.03635169242583</v>
+        <v>8.740349873203927e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.528434853267056e-06</v>
+        <v>0.01918469154095671</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.740349873203927e-06</v>
+        <v>0.2255952264528258</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01918469154095671</v>
+        <v>0.05121478995884512</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2255952264528258</v>
+        <v>1.800143316630643</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05121478995884512</v>
+        <v>1.799574866267481</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.740074727930016</v>
+        <v>4.13143458043913</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.799574866267481</v>
+        <v>1.344749994531242e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.13143458043913</v>
+        <v>43958156.99228301</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.344749994531242e-14</v>
+        <v>2.663892538026422e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>43958156.99228301</v>
+        <v>25.98486726023852</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.663892538026422e-06</v>
+        <v>0.000131917338099373</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>25.98486726023852</v>
+        <v>8.421419424736488</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000131917338099373</v>
+        <v>1.317305819329251</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.421419424736488</v>
+        <v>0.00935561786959256</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.317305819329251</v>
+        <v>2.946865180522499</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00935561786959256</v>
+        <v>0.9579246098582221</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.946865180522499</v>
+        <v>1.700893210535552</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9579246098582221</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.700893210535552</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2185539772007409</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>3.767449634839655e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4946527384817862</v>
+        <v>1.220109478446797e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.046319006479876</v>
+        <v>8.745163166043555e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.220109478446797e-06</v>
+        <v>0.006516221179810651</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.745163166043555e-06</v>
+        <v>0.2041889687441978</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.006516221179810651</v>
+        <v>0.04169520407647255</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2041889687441978</v>
+        <v>1.798123646972249</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04169520407647255</v>
+        <v>1.785805531580019</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.737075847325049</v>
+        <v>3.985706999423263</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.785805531580019</v>
+        <v>1.486127195349743e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.985706999423263</v>
+        <v>39427484.34783062</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.486127195349743e-14</v>
+        <v>2.959909161348896e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>39427484.34783062</v>
+        <v>23.10224140234316</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.959909161348896e-06</v>
+        <v>0.0001340721030478773</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>23.10224140234316</v>
+        <v>8.267615613726765</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001340721030478773</v>
+        <v>1.317500581513873</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.267615613726765</v>
+        <v>0.009164293196840558</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.317500581513873</v>
+        <v>2.933715307647541</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009164293196840558</v>
+        <v>0.95561815806265</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.933715307647541</v>
+        <v>1.693201497849997</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.95561815806265</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.693201497849997</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2098989725282367</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>3.763810061348478e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4972238609689338</v>
+        <v>1.211346119680482e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.044757161049134</v>
+        <v>8.745410402792051e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.211346119680482e-06</v>
+        <v>-0.004941403607167208</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.745410402792051e-06</v>
+        <v>0.1785094395888269</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.004941403607167208</v>
+        <v>0.03185007974576985</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1785094395888269</v>
+        <v>1.787120337354605</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03185007974576985</v>
+        <v>1.760739158701655</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.722762318394699</v>
+        <v>3.869676212660258</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.760739158701655</v>
+        <v>1.624584907326727e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.869676212660258</v>
+        <v>36343775.91476871</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.624584907326727e-14</v>
+        <v>3.206171427801801e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>36343775.91476871</v>
+        <v>21.45865544103085</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.206171427801801e-06</v>
+        <v>0.0001434352770959117</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>21.45865544103085</v>
+        <v>8.392939473544764</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001434352770959117</v>
+        <v>1.326201988659505</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.392939473544764</v>
+        <v>0.01010378646233274</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.326201988659505</v>
+        <v>2.914190969847171</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01010378646233274</v>
+        <v>0.9542096364134328</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.914190969847171</v>
+        <v>1.694773374396323</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9542096364134328</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.694773374396323</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1945254135099165</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>3.775435358213597e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5193859593822244</v>
+        <v>1.211346119680482e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.044736253148839</v>
+        <v>8.741448479637348e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.211346119680482e-06</v>
+        <v>-0.01588787056449512</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.741448479637348e-06</v>
+        <v>0.1478036431001668</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01588787056449512</v>
+        <v>0.0220616061185269</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1478036431001668</v>
+        <v>1.772242559457787</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0220616061185269</v>
+        <v>1.754789506452921</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.702952869854287</v>
+        <v>3.874065462561866</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.754789506452921</v>
+        <v>1.620905738903907e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.874065462561866</v>
+        <v>36530719.5350254</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.620905738903907e-14</v>
+        <v>3.167423406051924e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>36530719.5350254</v>
+        <v>21.63088123642191</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.167423406051924e-06</v>
+        <v>0.000159656631658862</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>21.63088123642191</v>
+        <v>9.340996886888346</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000159656631658862</v>
+        <v>1.301977382910412</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.340996886888346</v>
+        <v>0.0139307153167831</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.301977382910412</v>
+        <v>2.801940490520345</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0139307153167831</v>
+        <v>0.9548007658535029</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.801940490520345</v>
+        <v>1.733212233682135</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9548007658535029</v>
+        <v>21</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.733212233682135</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.184603715446716</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>3.766144403928076e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5760512300050697</v>
+        <v>1.211346119680482e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9846997324835658</v>
+        <v>8.733496920250261e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.211346119680482e-06</v>
+        <v>-0.02592592843903275</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.733496920250261e-06</v>
+        <v>0.1169912358256484</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02592592843903275</v>
+        <v>0.01433314674939144</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1169912358256484</v>
+        <v>1.763744873404653</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01433314674939144</v>
+        <v>1.829408563959663</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.695673891606025</v>
+        <v>3.809320297209331</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.829408563959663</v>
+        <v>1.67647348237945e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.809320297209331</v>
+        <v>33250236.7071246</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.67647348237945e-14</v>
+        <v>3.452991465686543e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>33250236.7071246</v>
+        <v>18.53472603866026</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.452991465686543e-06</v>
+        <v>0.0001625892731416081</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>18.53472603866026</v>
+        <v>10.16025183604798</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001625892731416081</v>
+        <v>1.251745971511337</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.16025183604798</v>
+        <v>0.01678420730338665</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.251745971511337</v>
+        <v>2.731017513910202</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01678420730338665</v>
+        <v>0.9541684609218812</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.731017513910202</v>
+        <v>1.729890190195915</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9541684609218812</v>
+        <v>21</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.729890190195915</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.186962855720712</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>3.710494470178654e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6463247252921202</v>
+        <v>1.211346119680482e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.854051657424284</v>
+        <v>8.722078781282154e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.211346119680482e-06</v>
+        <v>-0.03484849835169645</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.722078781282154e-06</v>
+        <v>0.09125998964678537</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03484849835169645</v>
+        <v>0.009529161621745105</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09125998964678537</v>
+        <v>1.75321435209791</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009529161621745105</v>
+        <v>1.770476260144767</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.680488580273036</v>
+        <v>3.675893073174437</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.770476260144767</v>
+        <v>2.075037113346438e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.675893073174437</v>
+        <v>26723090.00587656</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.075037113346438e-14</v>
+        <v>4.290855933422077e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>26723090.00587656</v>
+        <v>14.81832847898342</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.290855933422077e-06</v>
+        <v>0.0001473628971433374</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14.81832847898342</v>
+        <v>9.134947360554769</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001473628971433374</v>
+        <v>1.271085555087892</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.134947360554769</v>
+        <v>0.01229703047563933</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.271085555087892</v>
+        <v>2.887967654124707</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01229703047563933</v>
+        <v>0.9540421929017456</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.887967654124707</v>
+        <v>1.718855330269498</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9540421929017456</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.718855330269498</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1869890692571853</v>
       </c>
     </row>
@@ -5190,7 +5142,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.439026194296766</v>
+        <v>1.409263496951142</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.392257639455572</v>
@@ -5279,7 +5231,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.460132106978807</v>
+        <v>1.422991767230125</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.339807536795214</v>
@@ -5368,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.460508496836294</v>
+        <v>1.431766783223768</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.499323284505591</v>
@@ -5457,7 +5409,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.456759163495615</v>
+        <v>1.426215473208657</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.361090554850363</v>
@@ -5546,7 +5498,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.452839952983517</v>
+        <v>1.426701973964051</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.43395555096543</v>
@@ -5635,7 +5587,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.441590634197907</v>
+        <v>1.414809149049969</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.41119781226395</v>
@@ -5724,7 +5676,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.405477108398679</v>
+        <v>1.381862310588446</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.276564349859586</v>
@@ -5813,7 +5765,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.39545203744717</v>
+        <v>1.368772042783052</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.270076598875077</v>
@@ -5902,7 +5854,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.400681471240641</v>
+        <v>1.375526961298883</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.282305848035647</v>
@@ -5991,7 +5943,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.415628650197877</v>
+        <v>1.38942085948851</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.283144867258383</v>
@@ -6080,7 +6032,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.411433631273199</v>
+        <v>1.384871880482182</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.279394993702299</v>
@@ -6169,7 +6121,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.418124781863698</v>
+        <v>1.395622906864981</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.317407879824088</v>
@@ -6258,7 +6210,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.428645082424181</v>
+        <v>1.401135592945479</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.33442865953967</v>
@@ -6347,7 +6299,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.444328162277358</v>
+        <v>1.417688797408672</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.24304146403417</v>
@@ -6436,7 +6388,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.442623154715439</v>
+        <v>1.412273692308196</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.32331102205788</v>
@@ -6525,7 +6477,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.428214504396106</v>
+        <v>1.400425350407972</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.27450043633516</v>
@@ -6614,7 +6566,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.447095697224835</v>
+        <v>1.417363630155255</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.353818172862936</v>
@@ -6703,7 +6655,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.457792119961183</v>
+        <v>1.426624696784225</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.339022682461086</v>
@@ -6792,7 +6744,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.462398155711205</v>
+        <v>1.432307914488935</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.237156322943522</v>
@@ -6881,7 +6833,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.460103571950082</v>
+        <v>1.428616575744559</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.256805592466488</v>
@@ -6970,7 +6922,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.459459292717428</v>
+        <v>1.4299251103038</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.222028707102184</v>
@@ -7059,7 +7011,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.501856753841349</v>
+        <v>1.46926580310545</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.438211602113245</v>
@@ -7148,7 +7100,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.517211696369955</v>
+        <v>1.486293589411948</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.325911842212779</v>
@@ -7237,7 +7189,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.519707955637145</v>
+        <v>1.488692370515684</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.387463799461051</v>
@@ -7326,7 +7278,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.515747735073304</v>
+        <v>1.486570765103894</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.386503604956728</v>
@@ -7415,7 +7367,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.522214994667968</v>
+        <v>1.490899688846229</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.477248624534352</v>
@@ -7504,7 +7456,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.520291749088149</v>
+        <v>1.483887408793479</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.421570364943793</v>
@@ -7593,7 +7545,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.528341771480717</v>
+        <v>1.49486843170844</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.349614362165782</v>
@@ -7682,7 +7634,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553137399782734</v>
+        <v>1.516938223830235</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.346774054470499</v>
@@ -7771,7 +7723,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.558022294888426</v>
+        <v>1.522288630531363</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.328136573143608</v>
@@ -7860,7 +7812,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.550701083862168</v>
+        <v>1.516070822575873</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.463503568473218</v>
@@ -7949,7 +7901,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557479850078494</v>
+        <v>1.519950247342</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.317865981222235</v>
@@ -8038,7 +7990,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.55615907606459</v>
+        <v>1.51411211854817</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.471499406844825</v>
@@ -8127,7 +8079,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.54327850643647</v>
+        <v>1.504655199148373</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.495073608709947</v>
@@ -8216,7 +8168,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.543291709621223</v>
+        <v>1.502349707228777</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.512507005209292</v>
@@ -8305,7 +8257,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.573608705305553</v>
+        <v>1.52086470598312</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.743619603310786</v>
@@ -8394,7 +8346,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576074108112987</v>
+        <v>1.52190194767075</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.7523737799986</v>
@@ -8483,7 +8435,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.543266988440399</v>
+        <v>1.498231674766897</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.531952930161993</v>
@@ -8572,7 +8524,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.54231116809277</v>
+        <v>1.491675030962491</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.676661919522513</v>
@@ -8661,7 +8613,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528614882133948</v>
+        <v>1.480989087843293</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.569981018704738</v>
@@ -8750,7 +8702,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.52968735681205</v>
+        <v>1.484462711890425</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.59049262204464</v>
@@ -8839,7 +8791,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.531564086987852</v>
+        <v>1.489880974712705</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.488292342081138</v>
@@ -8928,7 +8880,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.526062659806137</v>
+        <v>1.486798630330011</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.57803917636457</v>
@@ -9017,7 +8969,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.525176234502446</v>
+        <v>1.483823879442382</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.544708164353093</v>
@@ -9106,7 +9058,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.534624035141064</v>
+        <v>1.489571321593404</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.443935171188341</v>
@@ -9195,7 +9147,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.555237162539151</v>
+        <v>1.508618648861251</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.655847223432312</v>
@@ -9284,7 +9236,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.524335456700444</v>
+        <v>1.487880488988405</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.44508278141214</v>
@@ -9373,7 +9325,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53175036426263</v>
+        <v>1.494677639155763</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.215071829127204</v>
@@ -9462,7 +9414,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.5347635936128</v>
+        <v>1.495207890482609</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.516614851016248</v>
@@ -9551,7 +9503,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.533785150061851</v>
+        <v>1.487771222159318</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.599687232242531</v>
@@ -9640,7 +9592,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.510504251117136</v>
+        <v>1.478812300747883</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.709923305386858</v>
@@ -9926,7 +9878,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.555499384773943</v>
+        <v>1.555486791733824</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.943143966587045</v>
@@ -10015,7 +9967,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553900028264076</v>
+        <v>1.546560761054494</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.593588425162442</v>
@@ -10104,7 +10056,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5519607243883</v>
+        <v>1.538440500524797</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.602597841001883</v>
@@ -10193,7 +10145,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.562713052163773</v>
+        <v>1.543450553757051</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.728962215641948</v>
@@ -10282,7 +10234,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554160702676005</v>
+        <v>1.537032024221413</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.648208497202674</v>
@@ -10371,7 +10323,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.532167898621978</v>
+        <v>1.515059026032371</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.483565424284742</v>
@@ -10460,7 +10412,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.531050671377094</v>
+        <v>1.504188019330556</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.513194410855079</v>
@@ -10549,7 +10501,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.507707467387709</v>
+        <v>1.471103794702113</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.431786297324352</v>
@@ -10638,7 +10590,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.497418843533812</v>
+        <v>1.462031577036005</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.297741254694686</v>
@@ -10727,7 +10679,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.488867276933877</v>
+        <v>1.457008954365828</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.366962861179311</v>
@@ -10816,7 +10768,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.502609625253471</v>
+        <v>1.468011744780226</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.195521042281495</v>
@@ -10905,7 +10857,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.502608577552788</v>
+        <v>1.46531679450464</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.420444741018326</v>
@@ -10994,7 +10946,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50221832765318</v>
+        <v>1.462040256808874</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.379692681623162</v>
@@ -11083,7 +11035,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.492454398015766</v>
+        <v>1.451585029152532</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.501821183590941</v>
@@ -11172,7 +11124,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.490368170830161</v>
+        <v>1.446451088893489</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.373903471494242</v>
@@ -11261,7 +11213,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484394650998516</v>
+        <v>1.43823816955497</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.255516144709722</v>
@@ -11350,7 +11302,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.486416374245292</v>
+        <v>1.441464035296494</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.308872562096022</v>
@@ -11439,7 +11391,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.490960544084726</v>
+        <v>1.446395122413135</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.430630388591125</v>
@@ -11528,7 +11480,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.495056695033964</v>
+        <v>1.445940812256571</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.275132186428323</v>
@@ -11617,7 +11569,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.488893205904616</v>
+        <v>1.440643660102181</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.28043610201853</v>
@@ -11706,7 +11658,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.510765263648523</v>
+        <v>1.456657736259131</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.231606030200696</v>
@@ -11795,7 +11747,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511791313751525</v>
+        <v>1.462085185332126</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.472099577612369</v>
@@ -11884,7 +11836,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.536691676478968</v>
+        <v>1.479421084247825</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.031297570703031</v>
@@ -11973,7 +11925,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.543817585580482</v>
+        <v>1.482824434640996</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.119755050522037</v>
@@ -12062,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.538133948891314</v>
+        <v>1.474237774912376</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.166762778159336</v>
@@ -12151,7 +12103,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.52533217150321</v>
+        <v>1.46181226493306</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.161027126697949</v>
@@ -12240,7 +12192,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.517705509747485</v>
+        <v>1.455550073382972</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.006629060140653</v>
@@ -12329,7 +12281,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.519682967010318</v>
+        <v>1.457938852750299</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.994986249912139</v>
@@ -12418,7 +12370,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534342952478299</v>
+        <v>1.472194314455522</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.122918167013047</v>
@@ -12507,7 +12459,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.542113565553696</v>
+        <v>1.472174122885536</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.755660119318268</v>
@@ -12596,7 +12548,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.523660098794334</v>
+        <v>1.461120476187594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.706763092249889</v>
@@ -12685,7 +12637,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.513759587055398</v>
+        <v>1.453278419023246</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.049076016657474</v>
@@ -12774,7 +12726,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.505629277242346</v>
+        <v>1.4484320372902</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.931942663769294</v>
@@ -12863,7 +12815,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.50171058380344</v>
+        <v>1.451327421162565</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.767063580515717</v>
@@ -12952,7 +12904,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.507893091624617</v>
+        <v>1.460704306872404</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.712029597183582</v>
@@ -13041,7 +12993,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.513721698133595</v>
+        <v>1.469868664415155</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.743123320568086</v>
@@ -13130,7 +13082,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540070894576926</v>
+        <v>1.501323609139184</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.783214727086733</v>
@@ -13219,7 +13171,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.546163912318689</v>
+        <v>1.520191543328483</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.06220364309681</v>
@@ -13308,7 +13260,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.559140236168521</v>
+        <v>1.535894030517155</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.091969696837182</v>
@@ -13397,7 +13349,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.572924947259774</v>
+        <v>1.55258266732845</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.669792127791913</v>
@@ -13486,7 +13438,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.58134374301385</v>
+        <v>1.558449629615768</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.138963511471344</v>
@@ -13575,7 +13527,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.58804945105482</v>
+        <v>1.561476258682422</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.118105983720505</v>
@@ -13664,7 +13616,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.583561022705092</v>
+        <v>1.557062062717417</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.061775603615492</v>
@@ -13753,7 +13705,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.56680585648041</v>
+        <v>1.545796621255884</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.903515424956665</v>
@@ -13842,7 +13794,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.563422231333813</v>
+        <v>1.546004738901351</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.884430725469431</v>
@@ -13931,7 +13883,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581812577500467</v>
+        <v>1.559771559880207</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.801980441898812</v>
@@ -14020,7 +13972,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58910324128192</v>
+        <v>1.564469084365576</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.638824324856942</v>
@@ -14109,7 +14061,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.605457662967791</v>
+        <v>1.57486079285701</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.887321428030774</v>
@@ -14198,7 +14150,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611765751518701</v>
+        <v>1.580189298061447</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.819726144665814</v>
@@ -14287,7 +14239,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.60650365000674</v>
+        <v>1.563410321361253</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.803197903877987</v>
@@ -14376,7 +14328,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.577867639068702</v>
+        <v>1.54910789907135</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.726654937191385</v>
@@ -14662,7 +14614,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539094788810036</v>
+        <v>1.494023828481789</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.0914249019126</v>
@@ -14751,7 +14703,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555332695708267</v>
+        <v>1.504063733838911</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.002924063627944</v>
@@ -14840,7 +14792,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.545643548177868</v>
+        <v>1.499893194053531</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.311298646260127</v>
@@ -14929,7 +14881,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.543675494146736</v>
+        <v>1.494503635333025</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.298882321453116</v>
@@ -15018,7 +14970,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.532563771892472</v>
+        <v>1.483693960618777</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.227289736511422</v>
@@ -15107,7 +15059,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.525485109908928</v>
+        <v>1.477723608662975</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.769098693498866</v>
@@ -15196,7 +15148,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.508405512764222</v>
+        <v>1.466818229568403</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.860851568636945</v>
@@ -15285,7 +15237,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.487073268841042</v>
+        <v>1.442370230052348</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.633699082255832</v>
@@ -15374,7 +15326,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.491327037234149</v>
+        <v>1.446822411210487</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.737072792215513</v>
@@ -15463,7 +15415,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.503903198130842</v>
+        <v>1.452155376189455</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.81886210561415</v>
@@ -15552,7 +15504,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.510169951193037</v>
+        <v>1.463833341956472</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.847996346264119</v>
@@ -15641,7 +15593,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513081582646809</v>
+        <v>1.461977790284036</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.775560903487938</v>
@@ -15730,7 +15682,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.516599470702057</v>
+        <v>1.460088459723103</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.882060865349282</v>
@@ -15819,7 +15771,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525532910201078</v>
+        <v>1.473276820974492</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.875645617311223</v>
@@ -15908,7 +15860,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519628075427176</v>
+        <v>1.463300244674296</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.962993061839954</v>
@@ -15997,7 +15949,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.518826195124018</v>
+        <v>1.459222521867459</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.652555358076323</v>
@@ -16086,7 +16038,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.525963484454333</v>
+        <v>1.466817074405177</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.761997680331278</v>
@@ -16175,7 +16127,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.52722154128649</v>
+        <v>1.467482315083006</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.697904788057128</v>
@@ -16264,7 +16216,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.52735428225674</v>
+        <v>1.465708968673842</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.742384187436257</v>
@@ -16353,7 +16305,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.52903830333231</v>
+        <v>1.46241626325397</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.984231694022745</v>
@@ -16442,7 +16394,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.530286460791453</v>
+        <v>1.457807604408898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.805130622352201</v>
@@ -16531,7 +16483,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541386077610443</v>
+        <v>1.465608690211571</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.017195514687872</v>
@@ -16620,7 +16572,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.553652596057734</v>
+        <v>1.481012956142341</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.949626643851293</v>
@@ -16709,7 +16661,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.547054965997607</v>
+        <v>1.476397058890591</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.030884513375488</v>
@@ -16798,7 +16750,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.548137708897713</v>
+        <v>1.478647605564467</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.919063796229324</v>
@@ -16887,7 +16839,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.545540730603568</v>
+        <v>1.47655198106465</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.774552163030426</v>
@@ -16976,7 +16928,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.548675692754222</v>
+        <v>1.479158692753607</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.110852184379917</v>
@@ -17065,7 +17017,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.553330365242005</v>
+        <v>1.484431669557362</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.965063541884194</v>
@@ -17154,7 +17106,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.558002116112835</v>
+        <v>1.489640231784618</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.169162251893364</v>
@@ -17243,7 +17195,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565809077810213</v>
+        <v>1.493658322255207</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.524213175111306</v>
@@ -17332,7 +17284,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.555607931999019</v>
+        <v>1.489363794447554</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.770119573362523</v>
@@ -17421,7 +17373,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.55494999298323</v>
+        <v>1.483670537860382</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.101329426670483</v>
@@ -17510,7 +17462,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.556720965932617</v>
+        <v>1.481706887270699</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.350080696924402</v>
@@ -17599,7 +17551,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.55750000495143</v>
+        <v>1.490338888731009</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.219992825875597</v>
@@ -17688,7 +17640,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561509375559825</v>
+        <v>1.498714041617791</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.963081765335343</v>
@@ -17777,7 +17729,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581318435681799</v>
+        <v>1.522842234918061</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.135350185726787</v>
@@ -17866,7 +17818,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588212311487701</v>
+        <v>1.530911014975314</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.847011143694858</v>
@@ -17955,7 +17907,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.592493458711544</v>
+        <v>1.539314675242368</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.206799369099202</v>
@@ -18044,7 +17996,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595316342054542</v>
+        <v>1.547615610763549</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.24852056735517</v>
@@ -18133,7 +18085,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.598926343947614</v>
+        <v>1.55370772853262</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.037599808210982</v>
@@ -18222,7 +18174,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.599662078628417</v>
+        <v>1.555342042172515</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.290038321600563</v>
@@ -18311,7 +18263,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603782622005163</v>
+        <v>1.557358650692099</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.175828231672272</v>
@@ -18400,7 +18352,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.604496345664029</v>
+        <v>1.55476039708924</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.349789088029728</v>
@@ -18489,7 +18441,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604195551082699</v>
+        <v>1.550047309924546</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.332626516825473</v>
@@ -18578,7 +18530,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.612810261958704</v>
+        <v>1.557430678694994</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.102115211722228</v>
@@ -18667,7 +18619,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.632056197519454</v>
+        <v>1.57712959600553</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.452157492852033</v>
@@ -18756,7 +18708,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.629164704771347</v>
+        <v>1.582141995677342</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.019041368170282</v>
@@ -18845,7 +18797,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.63169758826888</v>
+        <v>1.584047307838555</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.350297331915089</v>
@@ -18934,7 +18886,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.632184673973888</v>
+        <v>1.582730060721425</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.266496059554418</v>
@@ -19023,7 +18975,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.62847363433569</v>
+        <v>1.569202701742988</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.871875447967268</v>
@@ -19112,7 +19064,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603411166758076</v>
+        <v>1.551848895481116</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.837248969198303</v>
@@ -19398,7 +19350,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.613026821059567</v>
+        <v>1.560207096138328</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.442645803704841</v>
@@ -19487,7 +19439,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.599145668323058</v>
+        <v>1.548531690934567</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.142250371304757</v>
@@ -19576,7 +19528,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5966994273996</v>
+        <v>1.54481357223812</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.669184351322065</v>
@@ -19665,7 +19617,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.594204218276472</v>
+        <v>1.542592208200017</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.604868428029482</v>
@@ -19754,7 +19706,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.579280981397287</v>
+        <v>1.52670137054768</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.729418590355975</v>
@@ -19843,7 +19795,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562036927953135</v>
+        <v>1.51914323596827</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.65029730065401</v>
@@ -19932,7 +19884,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.533672857815952</v>
+        <v>1.495233441816102</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.643337099204048</v>
@@ -20021,7 +19973,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.501418299036894</v>
+        <v>1.466680729972402</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.657284053563334</v>
@@ -20110,7 +20062,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.496402840726977</v>
+        <v>1.467245892609231</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.631376802869298</v>
@@ -20199,7 +20151,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.495188035139363</v>
+        <v>1.467112292602493</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.548512503678542</v>
@@ -20288,7 +20240,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.489485248520346</v>
+        <v>1.459332456474343</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.653294163596231</v>
@@ -20377,7 +20329,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.488826511078188</v>
+        <v>1.457711510527523</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.621406819480544</v>
@@ -20466,7 +20418,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.481518483360089</v>
+        <v>1.447903914472458</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.578930081077599</v>
@@ -20555,7 +20507,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.482310787391302</v>
+        <v>1.453373753809599</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.562942563427948</v>
@@ -20644,7 +20596,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.483552337341084</v>
+        <v>1.450458311270955</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.596720953047377</v>
@@ -20733,7 +20685,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.482427204682616</v>
+        <v>1.448278214919817</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.64859970788909</v>
@@ -20822,7 +20774,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.487669948024715</v>
+        <v>1.451269902857265</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.523569670643121</v>
@@ -20911,7 +20863,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.484311104579137</v>
+        <v>1.452460108906454</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.624237175614425</v>
@@ -21000,7 +20952,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.486934135151483</v>
+        <v>1.455364785279671</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.67777352810822</v>
@@ -21089,7 +21041,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491948816713545</v>
+        <v>1.459362663449659</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.664672807780367</v>
@@ -21178,7 +21130,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.508673054220531</v>
+        <v>1.467925951939779</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.446581663942943</v>
@@ -21267,7 +21219,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.521759680723719</v>
+        <v>1.475438431716451</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.701324878149811</v>
@@ -21356,7 +21308,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.538629321383129</v>
+        <v>1.488326786181283</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.243577554344481</v>
@@ -21445,7 +21397,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541919161701303</v>
+        <v>1.489013483245647</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.180759381463546</v>
@@ -21534,7 +21486,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.545329386100399</v>
+        <v>1.489452001543683</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.264108352711858</v>
@@ -21623,7 +21575,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.540204311708272</v>
+        <v>1.482090758139175</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.344065028610408</v>
@@ -21712,7 +21664,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539974763960928</v>
+        <v>1.481880585795412</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.880559208513206</v>
@@ -21801,7 +21753,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.553300667471949</v>
+        <v>1.490371104724885</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.12110478301379</v>
@@ -21890,7 +21842,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553300542882624</v>
+        <v>1.485638673903886</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.969057343567187</v>
@@ -21979,7 +21931,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.55262382484559</v>
+        <v>1.487511148196442</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.165363349317702</v>
@@ -22068,7 +22020,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.542369824340873</v>
+        <v>1.479610109783022</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.821575134142546</v>
@@ -22157,7 +22109,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.539855884477886</v>
+        <v>1.475054531012182</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.12599215882099</v>
@@ -22246,7 +22198,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542494027280375</v>
+        <v>1.478140424333058</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.227011921547547</v>
@@ -22335,7 +22287,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.538799935190175</v>
+        <v>1.471327974094559</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.119929619012099</v>
@@ -22424,7 +22376,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.549714965281169</v>
+        <v>1.484036298104419</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.978218823603914</v>
@@ -22513,7 +22465,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.548449727236643</v>
+        <v>1.479869032042971</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.215880390643675</v>
@@ -22602,7 +22554,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.563869507063433</v>
+        <v>1.49800725615024</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.747535468002857</v>
@@ -22691,7 +22643,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.563603963568264</v>
+        <v>1.499933599699786</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.899657529997573</v>
@@ -22780,7 +22732,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55266367592577</v>
+        <v>1.493474935240395</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.929730710754428</v>
@@ -22869,7 +22821,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.558281749183156</v>
+        <v>1.502471136969985</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.108799863357051</v>
@@ -22958,7 +22910,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.563630445742811</v>
+        <v>1.508508810643345</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.921821019088668</v>
@@ -23047,7 +22999,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562897708660942</v>
+        <v>1.506644866938119</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.863411707078905</v>
@@ -23136,7 +23088,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564236341685738</v>
+        <v>1.508249317735494</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.258414524777761</v>
@@ -23225,7 +23177,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.567120648501628</v>
+        <v>1.510817640326625</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.915434893010868</v>
@@ -23314,7 +23266,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.569641826637311</v>
+        <v>1.516839315815538</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.265676789335455</v>
@@ -23403,7 +23355,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.582423476581362</v>
+        <v>1.527104961448835</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.230506399940471</v>
@@ -23492,7 +23444,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573820418628764</v>
+        <v>1.525582487969397</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.889618780303554</v>
@@ -23581,7 +23533,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571987747297138</v>
+        <v>1.524550005290899</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.077900118745261</v>
@@ -23670,7 +23622,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580321579535197</v>
+        <v>1.536236121523145</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.601805828787898</v>
@@ -23759,7 +23711,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.571330686102637</v>
+        <v>1.51272475269358</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.6469345727454</v>
@@ -23848,7 +23800,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.553654067030998</v>
+        <v>1.511896345568243</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.850818304755367</v>
@@ -24134,7 +24086,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.628997644975743</v>
+        <v>1.623540646285152</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.763562348697161</v>
@@ -24223,7 +24175,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.668188623033543</v>
+        <v>1.641271930006091</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.391700665281774</v>
@@ -24312,7 +24264,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.675782754134246</v>
+        <v>1.642585100053555</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.077976106311914</v>
@@ -24401,7 +24353,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663759297655668</v>
+        <v>1.625238378841549</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.977590134286818</v>
@@ -24490,7 +24442,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.667571558836657</v>
+        <v>1.629674336907552</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.040891597069343</v>
@@ -24579,7 +24531,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.64717384203426</v>
+        <v>1.613706994200569</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.752330493423408</v>
@@ -24668,7 +24620,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.623149767165676</v>
+        <v>1.580528818345934</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.725537643766218</v>
@@ -24757,7 +24709,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.604495640832779</v>
+        <v>1.562686855878699</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.756330480992524</v>
@@ -24846,7 +24798,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590851578962478</v>
+        <v>1.554369376752665</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.776270951181513</v>
@@ -24935,7 +24887,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589464455992336</v>
+        <v>1.553484314057275</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.682490041042467</v>
@@ -25024,7 +24976,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.585623015733914</v>
+        <v>1.551431109491321</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.714358491174024</v>
@@ -25113,7 +25065,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.586208451331912</v>
+        <v>1.551416506100959</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.802939679488571</v>
@@ -25202,7 +25154,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.573688756321122</v>
+        <v>1.542024744757235</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.679615270687261</v>
@@ -25291,7 +25243,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.57358813210318</v>
+        <v>1.542482141471431</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.75280471908901</v>
@@ -25380,7 +25332,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.574857858572563</v>
+        <v>1.542016480517708</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.722177013063028</v>
@@ -25469,7 +25421,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565033900141657</v>
+        <v>1.52767524518048</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.733315984997722</v>
@@ -25558,7 +25510,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.567189322274915</v>
+        <v>1.531802934691948</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.822008847112123</v>
@@ -25647,7 +25599,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559285310396573</v>
+        <v>1.525022494657019</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.676488320410636</v>
@@ -25736,7 +25688,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556087550419246</v>
+        <v>1.52228824033936</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.736846308950335</v>
@@ -25825,7 +25777,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.551563875038312</v>
+        <v>1.514972958300353</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.686078956308646</v>
@@ -25914,7 +25866,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.562633588208081</v>
+        <v>1.521231984702791</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.603593165865794</v>
@@ -26003,7 +25955,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578654335192436</v>
+        <v>1.546536602149585</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.799259514554243</v>
@@ -26092,7 +26044,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.593847316881745</v>
+        <v>1.559878452995052</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.874580060877621</v>
@@ -26181,7 +26133,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.603092571329322</v>
+        <v>1.564791595991494</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.089121739379779</v>
@@ -26270,7 +26222,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.597654198372696</v>
+        <v>1.558992393296858</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.037174529503203</v>
@@ -26359,7 +26311,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593301717601107</v>
+        <v>1.550350583709618</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.995846948392011</v>
@@ -26448,7 +26400,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.593621815082891</v>
+        <v>1.549803958401625</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.07929364594896</v>
@@ -26537,7 +26489,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59781579014322</v>
+        <v>1.556036086807784</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.116601654181432</v>
@@ -26626,7 +26578,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.60249824763695</v>
+        <v>1.565336491653634</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.977787295368479</v>
@@ -26715,7 +26667,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.600243390713284</v>
+        <v>1.560229777366759</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.831376219815237</v>
@@ -26804,7 +26756,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592593321310974</v>
+        <v>1.555546567752642</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.833455277515165</v>
@@ -26893,7 +26845,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.578136398125113</v>
+        <v>1.545451652078976</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.01304803372319</v>
@@ -26982,7 +26934,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588676050097622</v>
+        <v>1.553422434987796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.093650117904311</v>
@@ -27071,7 +27023,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.58036417412402</v>
+        <v>1.548088433054859</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.879160223906152</v>
@@ -27160,7 +27112,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.58396426057481</v>
+        <v>1.556399213408682</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.87013886667871</v>
@@ -27249,7 +27201,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.587226299789116</v>
+        <v>1.559721501917254</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.30693816974492</v>
@@ -27338,7 +27290,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.597413333292821</v>
+        <v>1.5699580168997</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.952028313114542</v>
@@ -27427,7 +27379,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.605676076940828</v>
+        <v>1.579184636844347</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.227133187327591</v>
@@ -27516,7 +27468,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.610310819091399</v>
+        <v>1.590272429444816</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.986886966274529</v>
@@ -27605,7 +27557,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.602893382229317</v>
+        <v>1.583221378514178</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.080885551848434</v>
@@ -27694,7 +27646,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.612822288435888</v>
+        <v>1.597528482904214</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.999300380147086</v>
@@ -27783,7 +27735,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.613517178443391</v>
+        <v>1.599886034666708</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.045108389419024</v>
@@ -27872,7 +27824,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.610874669965867</v>
+        <v>1.588827411863178</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.143714745667721</v>
@@ -27961,7 +27913,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.612092032518328</v>
+        <v>1.583472183617716</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.171012866135777</v>
@@ -28050,7 +28002,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621384619286707</v>
+        <v>1.597226151611107</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.097339414785233</v>
@@ -28139,7 +28091,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.630850248942038</v>
+        <v>1.60715394666463</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.947226445828901</v>
@@ -28228,7 +28180,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.648424758590647</v>
+        <v>1.623750543389263</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.109963389031228</v>
@@ -28317,7 +28269,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.657052214262127</v>
+        <v>1.634178677158818</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.260488997177042</v>
@@ -28406,7 +28358,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664006481718196</v>
+        <v>1.641464697824567</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.070312108492213</v>
@@ -28495,7 +28447,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.667705969194674</v>
+        <v>1.636880030427135</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.087822218536146</v>
@@ -28584,7 +28536,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.650624291100673</v>
+        <v>1.632385796633781</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.26829797902209</v>
@@ -28870,7 +28822,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.395551908254744</v>
+        <v>1.377070005025873</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.268659062237655</v>
@@ -28959,7 +28911,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416528991768514</v>
+        <v>1.397661833101167</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.12447820867976</v>
@@ -29048,7 +29000,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.410724604778963</v>
+        <v>1.394429148976467</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.320975126252041</v>
@@ -29137,7 +29089,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.408773191973673</v>
+        <v>1.394624709821372</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.223379900302732</v>
@@ -29226,7 +29178,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.399344779375133</v>
+        <v>1.386776117919912</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.272827763351085</v>
@@ -29315,7 +29267,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.393699715246447</v>
+        <v>1.381311379934426</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.299099747640293</v>
@@ -29404,7 +29356,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.371173459024659</v>
+        <v>1.357542601981585</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.168022461424594</v>
@@ -29493,7 +29445,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.360034243187394</v>
+        <v>1.343838386502146</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.19994906471748</v>
@@ -29582,7 +29534,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.366047015597996</v>
+        <v>1.354426058637228</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.206974310387525</v>
@@ -29671,7 +29623,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.384796248685316</v>
+        <v>1.374569008810385</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.121742232091255</v>
@@ -29760,7 +29712,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.384526892514957</v>
+        <v>1.373229304677984</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.198288799536031</v>
@@ -29849,7 +29801,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.381759896172273</v>
+        <v>1.372388008390635</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.285063200280264</v>
@@ -29938,7 +29890,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.398680587718272</v>
+        <v>1.383245621227502</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.186504211834975</v>
@@ -30027,7 +29979,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.415025958588423</v>
+        <v>1.402733036261955</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.272250554750965</v>
@@ -30116,7 +30068,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.416791539799831</v>
+        <v>1.402126281393239</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.179132445882844</v>
@@ -30205,7 +30157,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.408986666365412</v>
+        <v>1.391432072274555</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.240356148226541</v>
@@ -30294,7 +30246,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.438787868918124</v>
+        <v>1.416508286103238</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.25524008145306</v>
@@ -30383,7 +30335,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.441059299520872</v>
+        <v>1.419955656575056</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.163089897692251</v>
@@ -30472,7 +30424,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.440476730042134</v>
+        <v>1.415875950084911</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.195089247615771</v>
@@ -30561,7 +30513,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.451494854989972</v>
+        <v>1.423359343267371</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.220566954463929</v>
@@ -30650,7 +30602,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.431591754960376</v>
+        <v>1.405232616556709</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.11481017958662</v>
@@ -30739,7 +30691,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.463386433866349</v>
+        <v>1.432311424246079</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.21595804795943</v>
@@ -30828,7 +30780,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.476899777371112</v>
+        <v>1.451644502176525</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.156309816244097</v>
@@ -30917,7 +30869,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.487748169929236</v>
+        <v>1.461519177956698</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.207137783206949</v>
@@ -31006,7 +30958,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.489536450231265</v>
+        <v>1.460184326006044</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.280073006954801</v>
@@ -31095,7 +31047,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.497720980137443</v>
+        <v>1.471496008323626</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.345858974991744</v>
@@ -31184,7 +31136,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.502280119034958</v>
+        <v>1.471433552815946</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.284379737197471</v>
@@ -31273,7 +31225,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.508333844865786</v>
+        <v>1.473876115298516</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.200126076660271</v>
@@ -31362,7 +31314,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.533962312689666</v>
+        <v>1.494735553056842</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.184100678297459</v>
@@ -31451,7 +31403,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.530143459138957</v>
+        <v>1.492160270020484</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.155710096981504</v>
@@ -31540,7 +31492,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.510839686514386</v>
+        <v>1.480264208579372</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.251354413881576</v>
@@ -31629,7 +31581,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.513678750126383</v>
+        <v>1.480726229080841</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.16123784615215</v>
@@ -31718,7 +31670,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.511920253594152</v>
+        <v>1.475765660563191</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.154953379524049</v>
@@ -31807,7 +31759,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.500071783267382</v>
+        <v>1.468714160931656</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.184881028467932</v>
@@ -31896,7 +31848,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.506949092763407</v>
+        <v>1.478094805846105</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.147695407929728</v>
@@ -31985,7 +31937,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553579416475906</v>
+        <v>1.513474826200975</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.452666414159659</v>
@@ -32074,7 +32026,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.559702328241237</v>
+        <v>1.528340703149395</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.515658051327297</v>
@@ -32163,7 +32115,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.521539816303391</v>
+        <v>1.494265244877563</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.224313392720803</v>
@@ -32252,7 +32204,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.509865932295873</v>
+        <v>1.482029568860576</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.327880824730638</v>
@@ -32341,7 +32293,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.497791312720741</v>
+        <v>1.474866960255882</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.284396406525165</v>
@@ -32430,7 +32382,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.497982911557516</v>
+        <v>1.472718020054854</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.238827610276557</v>
@@ -32519,7 +32471,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488610437796852</v>
+        <v>1.461031290174831</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.228305411628615</v>
@@ -32608,7 +32560,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.476688495137964</v>
+        <v>1.45115683576457</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.236722290308306</v>
@@ -32697,7 +32649,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.480855515295093</v>
+        <v>1.455457599681911</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.232173055912607</v>
@@ -32786,7 +32738,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.491370953411593</v>
+        <v>1.461825995952278</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.194807558902209</v>
@@ -32875,7 +32827,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.497058968769649</v>
+        <v>1.466870203456353</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.198550278218433</v>
@@ -32964,7 +32916,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.460928173606326</v>
+        <v>1.440819427130082</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.161948284566116</v>
@@ -33053,7 +33005,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.463572369790899</v>
+        <v>1.445593922304344</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.187342801833914</v>
@@ -33142,7 +33094,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.484440498120236</v>
+        <v>1.467004212947707</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.240412241396462</v>
@@ -33231,7 +33183,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.477589314597789</v>
+        <v>1.449574559015944</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.313403039258859</v>
@@ -33320,7 +33272,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.456902391639864</v>
+        <v>1.4397158457529</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.264702726864166</v>
